--- a/src/assets/mileage_student_register.xlsx
+++ b/src/assets/mileage_student_register.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byungwoongan/Desktop/hispath_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongseogmin/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32599D09-E71F-0544-A4C5-7D3DDD608EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592CDEAA-E487-F84B-AB32-6186D02F255D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25900" yWindow="1080" windowWidth="23560" windowHeight="16940" xr2:uid="{8CB8718E-13EB-3643-B6C4-930D62CF2B8D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{8CB8718E-13EB-3643-B6C4-930D62CF2B8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,53 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>학생1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학생2</t>
-  </si>
-  <si>
-    <t>학생3</t>
-  </si>
-  <si>
-    <t>학생4</t>
-  </si>
-  <si>
-    <t>학생5</t>
-  </si>
-  <si>
     <t>학생6</t>
   </si>
   <si>
@@ -104,7 +57,52 @@
     <t>학생9</t>
   </si>
   <si>
-    <t>학생10</t>
+    <t>안병웅</t>
+  </si>
+  <si>
+    <t>22200000</t>
+  </si>
+  <si>
+    <t>22200001</t>
+  </si>
+  <si>
+    <t>22200002</t>
+  </si>
+  <si>
+    <t>22200003</t>
+  </si>
+  <si>
+    <t>22200004</t>
+  </si>
+  <si>
+    <t>22200005</t>
+  </si>
+  <si>
+    <t>박성진</t>
+  </si>
+  <si>
+    <t>이인혁</t>
+  </si>
+  <si>
+    <t>홍성헌</t>
+  </si>
+  <si>
+    <t>정석민</t>
+  </si>
+  <si>
+    <t>송다빈</t>
+  </si>
+  <si>
+    <t>22200006</t>
+  </si>
+  <si>
+    <t>22200007</t>
+  </si>
+  <si>
+    <t>22200008</t>
+  </si>
+  <si>
+    <t>22200009</t>
   </si>
 </sst>
 </file>
@@ -474,7 +472,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -495,15 +493,15 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
@@ -511,7 +509,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -519,7 +517,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>15</v>
@@ -527,7 +525,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>16</v>
@@ -535,7 +533,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>17</v>
@@ -543,34 +541,34 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
